--- a/data/trans_camb/DCD-Dificultad-trans_camb.xlsx
+++ b/data/trans_camb/DCD-Dificultad-trans_camb.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.169890802407999</v>
+        <v>-0.2222550471322357</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>12.77607159520475</v>
+        <v>12.85251539283806</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-5.847590051671121</v>
+        <v>-5.688135931183138</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14.93299157506519</v>
+        <v>14.88412977586523</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.250449530912372</v>
+        <v>-2.041127356262191</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>15.54248416308912</v>
+        <v>15.55954399150963</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.596533982633945</v>
+        <v>4.758948679928358</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>21.19897480211716</v>
+        <v>21.34395542348271</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8533081796363381</v>
+        <v>0.5178536271577924</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.99013092977804</v>
+        <v>23.41114001770693</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.099803040033847</v>
+        <v>2.000495313102507</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>21.53297734011134</v>
+        <v>21.40153115698473</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>0.2856119953827991</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>2.278358709350462</v>
+        <v>2.278358709350463</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1313175348917737</v>
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.02159770406474025</v>
+        <v>-0.02918832049543027</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>1.481586237640237</v>
+        <v>1.456953552138738</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2811254786793607</v>
+        <v>-0.2799459345693859</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.7140789910371996</v>
+        <v>0.7216402108411666</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1579762595952248</v>
+        <v>-0.1431536531643861</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.084677727191317</v>
+        <v>1.059835813037444</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7450103398264502</v>
+        <v>0.766226435976652</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>3.30114822979116</v>
+        <v>3.335532595122382</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.05220144433519937</v>
+        <v>0.02826868993932585</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.302687973688859</v>
+        <v>1.366965455392486</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1733005855223409</v>
+        <v>0.1593345032124337</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.738371525472324</v>
+        <v>1.747393717305932</v>
       </c>
     </row>
     <row r="10">
@@ -784,7 +784,7 @@
         <v>-2.486068218714283</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>9.112191532087524</v>
+        <v>9.112191532087522</v>
       </c>
     </row>
     <row r="11">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.812888684086364</v>
+        <v>-2.726986429326169</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.513312397329661</v>
+        <v>4.509131559828672</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-7.361635770919679</v>
+        <v>-7.716722363501099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.290387403345322</v>
+        <v>6.877733462808871</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-4.570807472685578</v>
+        <v>-4.461285160646042</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>7.043372553282039</v>
+        <v>6.749747960247563</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.98765439390743</v>
+        <v>1.884861943137795</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>9.778847479817138</v>
+        <v>9.981285606239657</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>-1.336080862043632</v>
+        <v>-0.9842179849769546</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13.7067745183519</v>
+        <v>13.85287449040755</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>-0.5453278268517256</v>
+        <v>-0.504379162846998</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.01612285992377</v>
+        <v>11.360124894082</v>
       </c>
     </row>
     <row r="13">
@@ -862,7 +862,7 @@
         <v>-0.2012291791278549</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7375657708242873</v>
+        <v>0.7375657708242871</v>
       </c>
     </row>
     <row r="14">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.361210201141334</v>
+        <v>-0.3422529079136936</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.5368579649268516</v>
+        <v>0.5443938385462415</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.3880085313758095</v>
+        <v>-0.4078216395666079</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.3864753200567526</v>
+        <v>0.3591214838062415</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.3456820600002296</v>
+        <v>-0.3306247015025509</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5108874728209707</v>
+        <v>0.5017513322616428</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.3682624680617407</v>
+        <v>0.3471001172279426</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.802173493271534</v>
+        <v>1.863677163856584</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>-0.07744079020220491</v>
+        <v>-0.05930499682302982</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8720493683424809</v>
+        <v>0.8983552005199377</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.04942897019138834</v>
+        <v>-0.04072767710512025</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9627258218169442</v>
+        <v>1.011684066385023</v>
       </c>
     </row>
     <row r="16">
@@ -938,7 +938,7 @@
         <v>-3.407843457308525</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8.852036231144035</v>
+        <v>8.852036231144037</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>-2.991261665141735</v>
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-4.87192976638844</v>
+        <v>-4.693599582062085</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02828524411608368</v>
+        <v>-0.04979942636474417</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.650421844306845</v>
+        <v>-6.613234032973307</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5.876973014570401</v>
+        <v>5.406772521461654</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-4.792998036479097</v>
+        <v>-5.025208790581185</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.277283720462425</v>
+        <v>3.466244212654577</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-0.4163521044153256</v>
+        <v>-0.2112485483192692</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>4.726747956000627</v>
+        <v>4.868126197505846</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.1131804324141164</v>
+        <v>-0.1261603417073056</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>12.12578418749723</v>
+        <v>11.8182824573592</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>-1.046464166368403</v>
+        <v>-1.154692045091888</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.614810116465201</v>
+        <v>7.4959445992024</v>
       </c>
     </row>
     <row r="19">
@@ -1016,7 +1016,7 @@
         <v>-0.2728304742596073</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.7086901946528014</v>
+        <v>0.7086901946528016</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3176500603860861</v>
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6173183429951341</v>
+        <v>-0.6022160892428954</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.01418267831529162</v>
+        <v>-0.007500098021288731</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4677858663368041</v>
+        <v>-0.4713287133672752</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.3796764509581443</v>
+        <v>0.3779209529834643</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4649336400823357</v>
+        <v>-0.4722675650302944</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3058185680243342</v>
+        <v>0.3299754492797614</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.07873981252186878</v>
+        <v>-0.01689480128926735</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.9604163659985125</v>
+        <v>0.9841276292854721</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.002023736561936247</v>
+        <v>-0.0126346681551148</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1.125436935474162</v>
+        <v>1.140468275560235</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1252224982152662</v>
+        <v>-0.1375567652032592</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.9253378642100644</v>
+        <v>0.9002355644949429</v>
       </c>
     </row>
     <row r="22">
@@ -1104,7 +1104,7 @@
         <v>-1.535261854319312</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>7.614690830422302</v>
+        <v>7.614690830422297</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-2.785999799640471</v>
+        <v>-2.761518418034482</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.219261530202358</v>
+        <v>2.338825458693031</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.174793722632783</v>
+        <v>-8.04181977594445</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>5.635797715126988</v>
+        <v>5.925836615822093</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.110285776170993</v>
+        <v>-4.150692660068892</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>5.001919826487525</v>
+        <v>5.037315988865074</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.31763181545762</v>
+        <v>3.318718789028028</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.970950466196043</v>
+        <v>8.031882677237757</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9505341022069372</v>
+        <v>1.025900440584303</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14.53649941939977</v>
+        <v>14.66808450432009</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.313550393174791</v>
+        <v>1.109402670845957</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>10.17620615709323</v>
+        <v>10.2108908369015</v>
       </c>
     </row>
     <row r="25">
@@ -1182,7 +1182,7 @@
         <v>-0.1634364906130914</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.810622854288065</v>
+        <v>0.8106228542880645</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.3967489149856117</v>
+        <v>-0.3758623992015711</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.3043643675039375</v>
+        <v>0.2695602108792267</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5063721879067572</v>
+        <v>-0.5086825074603106</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3152726218804815</v>
+        <v>0.3549664122766848</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3916720279083391</v>
+        <v>-0.3874514556474986</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4443224346119491</v>
+        <v>0.4539444968562201</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8333102235523149</v>
+        <v>0.788354185322632</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>1.966616252091403</v>
+        <v>2.017622734481467</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09475233537151931</v>
+        <v>0.1006640233458985</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.328395520923509</v>
+        <v>1.4246966720244</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1681684308835949</v>
+        <v>0.1473698417041153</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.288391102239503</v>
+        <v>1.322055579412374</v>
       </c>
     </row>
     <row r="28">
@@ -1264,7 +1264,7 @@
         <v>-1.594330438595468</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>8.5100733735138</v>
+        <v>8.510073373513803</v>
       </c>
     </row>
     <row r="29">
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-1.138637429358153</v>
+        <v>-1.139093554342128</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>4.889037663066889</v>
+        <v>4.825087418657741</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-5.047431825708849</v>
+        <v>-4.811988427468389</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8.602763354365472</v>
+        <v>8.615805791018277</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.716634644383753</v>
+        <v>-2.682481736920366</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>7.316786888850471</v>
+        <v>7.247296387235898</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.284714218276207</v>
+        <v>1.234004472574175</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.77146487148288</v>
+        <v>7.624080770002409</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>-1.546144477907702</v>
+        <v>-1.38767997650579</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12.23386809264721</v>
+        <v>12.19141697867801</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-0.4957514388903441</v>
+        <v>-0.5161447162507059</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>9.650225636921663</v>
+        <v>9.706666607885998</v>
       </c>
     </row>
     <row r="31">
@@ -1336,13 +1336,13 @@
         <v>-0.1993881784020309</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>0.6501827707006257</v>
+        <v>0.6501827707006254</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.1385388870974427</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.7394803898511818</v>
+        <v>0.7394803898511821</v>
       </c>
     </row>
     <row r="32">
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1595406390915798</v>
+        <v>-0.1593624241787377</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.6590456024968563</v>
+        <v>0.6573765725098512</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.295527413333789</v>
+        <v>-0.2857634958941412</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.4996392901846109</v>
+        <v>0.4856821996731721</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.224518652000767</v>
+        <v>-0.2231905217224528</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6077999943696205</v>
+        <v>0.5903045523338075</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2131002922683741</v>
+        <v>0.207302810651109</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.30318975426544</v>
+        <v>1.264988243294701</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>-0.1025637145963798</v>
+        <v>-0.09020498408752335</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.8049543121231822</v>
+        <v>0.7985942761871534</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.04459377883477617</v>
+        <v>-0.04410722959126812</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.8869433304640517</v>
+        <v>0.8884120890433657</v>
       </c>
     </row>
     <row r="34">
